--- a/output/raw_data/USD_CNH.xlsx
+++ b/output/raw_data/USD_CNH.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3909"/>
+  <dimension ref="A1:B3938"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31656,7 +31656,239 @@
         <v>45901</v>
       </c>
       <c r="B3909">
-        <v>7.1287</v>
+        <v>7.1352</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:2">
+      <c r="A3910" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B3910">
+        <v>7.1385</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:2">
+      <c r="A3911" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B3911">
+        <v>7.1395</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:2">
+      <c r="A3912" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B3912">
+        <v>7.1367</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:2">
+      <c r="A3913" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B3913">
+        <v>7.1262</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:2">
+      <c r="A3914" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B3914">
+        <v>7.1226</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:2">
+      <c r="A3915" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B3915">
+        <v>7.124</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:2">
+      <c r="A3916" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B3916">
+        <v>7.1201</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:2">
+      <c r="A3917" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B3917">
+        <v>7.1129</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:2">
+      <c r="A3918" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B3918">
+        <v>7.1247</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:2">
+      <c r="A3919" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B3919">
+        <v>7.1189</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:2">
+      <c r="A3920" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B3920">
+        <v>7.1041</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:2">
+      <c r="A3921" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B3921">
+        <v>7.1022</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:2">
+      <c r="A3922" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B3922">
+        <v>7.1088</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:2">
+      <c r="A3923" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B3923">
+        <v>7.1194</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:2">
+      <c r="A3924" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B3924">
+        <v>7.1155</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:2">
+      <c r="A3925" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B3925">
+        <v>7.1137</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:2">
+      <c r="A3926" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B3926">
+        <v>7.1379</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:2">
+      <c r="A3927" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B3927">
+        <v>7.1452</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:2">
+      <c r="A3928" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B3928">
+        <v>7.1427</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:2">
+      <c r="A3929" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B3929">
+        <v>7.1294</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:2">
+      <c r="A3930" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B3930">
+        <v>7.1288</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:2">
+      <c r="A3931" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B3931">
+        <v>7.128</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:2">
+      <c r="A3932" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B3932">
+        <v>7.1328</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:2">
+      <c r="A3933" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B3933">
+        <v>7.136</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:2">
+      <c r="A3934" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B3934">
+        <v>7.1423</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:2">
+      <c r="A3935" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B3935">
+        <v>7.1459</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:2">
+      <c r="A3936" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B3936">
+        <v>7.1503</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:2">
+      <c r="A3937" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B3937">
+        <v>7.1379</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:2">
+      <c r="A3938" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B3938">
+        <v>7.1476</v>
       </c>
     </row>
   </sheetData>
